--- a/GameJam予定.xlsx
+++ b/GameJam予定.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s162054\Desktop\新学期色々\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s162054\Documents\Cocos\CocosProjects\iwashi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -728,7 +728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,9 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -817,6 +814,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1126,62 +1141,62 @@
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="34"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
